--- a/Результаты_DL/DL_summary_with_params.xlsx
+++ b/Результаты_DL/DL_summary_with_params.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9746</v>
+        <v>0.9752999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>1693703.7292</v>
+        <v>1649705.9665</v>
       </c>
       <c r="D2" t="n">
-        <v>1301.4237</v>
+        <v>1284.4088</v>
       </c>
       <c r="E2" t="n">
-        <v>1018.3703</v>
+        <v>1014.1161</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -538,31 +538,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9683</v>
+        <v>0.9677</v>
       </c>
       <c r="C3" t="n">
-        <v>1864224.978</v>
+        <v>1898496.7901</v>
       </c>
       <c r="D3" t="n">
-        <v>1365.3662</v>
+        <v>1377.8595</v>
       </c>
       <c r="E3" t="n">
-        <v>1032.1852</v>
+        <v>1071.5113</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="G3" t="n">
         <v>16</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[128, 64, 32]</t>
+          <t>[64, 32]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9671999999999999</v>
+        <v>0.9633</v>
       </c>
       <c r="C4" t="n">
-        <v>2129743.2006</v>
+        <v>2387369.7441</v>
       </c>
       <c r="D4" t="n">
-        <v>1459.364</v>
+        <v>1545.1116</v>
       </c>
       <c r="E4" t="n">
-        <v>1109.213</v>
+        <v>1187.7687</v>
       </c>
       <c r="F4" t="n">
         <v>0.001</v>
@@ -598,7 +598,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[128, 64, 32]</t>
+          <t>[64, 32]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9579</v>
+        <v>0.9584</v>
       </c>
       <c r="C5" t="n">
-        <v>2199503.0307</v>
+        <v>2173779.405</v>
       </c>
       <c r="D5" t="n">
-        <v>1483.0722</v>
+        <v>1474.3742</v>
       </c>
       <c r="E5" t="n">
-        <v>1135.2693</v>
+        <v>1125.6599</v>
       </c>
       <c r="F5" t="n">
         <v>0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -661,26 +661,26 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9508</v>
+        <v>0.9529</v>
       </c>
       <c r="C6" t="n">
-        <v>1219935.3179</v>
+        <v>1166297.7111</v>
       </c>
       <c r="D6" t="n">
-        <v>1104.5068</v>
+        <v>1079.9526</v>
       </c>
       <c r="E6" t="n">
-        <v>852.8132000000001</v>
+        <v>834.4546</v>
       </c>
       <c r="F6" t="n">
         <v>0.001</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[64, 32]</t>
+          <t>[128, 64, 32]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
